--- a/MEDIDAS_ESCALA.xlsx
+++ b/MEDIDAS_ESCALA.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6° Semestre\Mecanismos\Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotje\Desktop\Mecanismos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1217E-736E-4BCF-9D8F-2F604F7BFBE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="6870"/>
+    <workbookView xWindow="-8805" yWindow="1365" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>R0</t>
   </si>
@@ -66,12 +75,15 @@
   </si>
   <si>
     <t>DE M-CM</t>
+  </si>
+  <si>
+    <t>SOLID RDNDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +424,9 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -432,11 +447,15 @@
       <c r="B3">
         <v>1.2928200000000001</v>
       </c>
+      <c r="C3">
+        <f>ROUND(B3,2)</f>
+        <v>1.29</v>
+      </c>
       <c r="D3" s="1">
         <v>0.126</v>
       </c>
       <c r="F3">
-        <f>D3*B3</f>
+        <f t="shared" ref="F3:F10" si="0">D3*B3</f>
         <v>0.16289532000000001</v>
       </c>
       <c r="G3" s="2">
@@ -454,15 +473,19 @@
       <c r="B4">
         <v>7.9689999999999997E-2</v>
       </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C10" si="1">ROUND(B4,2)</f>
+        <v>0.08</v>
+      </c>
       <c r="D4" s="1">
         <v>0.126</v>
       </c>
       <c r="F4">
-        <f>D4*B4</f>
+        <f t="shared" si="0"/>
         <v>1.004094E-2</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G10" si="0">F4*I4</f>
+        <f t="shared" ref="G4:G10" si="2">F4*I4</f>
         <v>1.004094</v>
       </c>
       <c r="I4">
@@ -476,15 +499,19 @@
       <c r="B5">
         <v>7.9689999999999997E-2</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
       <c r="D5" s="1">
         <v>0.126</v>
       </c>
       <c r="F5">
-        <f>D5*B5</f>
+        <f t="shared" si="0"/>
         <v>1.004094E-2</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.004094</v>
       </c>
       <c r="I5">
@@ -498,15 +525,19 @@
       <c r="B6">
         <v>1.2612399999999999</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
       <c r="D6" s="1">
         <v>0.126</v>
       </c>
       <c r="F6">
-        <f>D6*B6</f>
+        <f t="shared" si="0"/>
         <v>0.15891623999999999</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15.891623999999998</v>
       </c>
       <c r="I6">
@@ -520,15 +551,19 @@
       <c r="B7">
         <v>0.68296999999999997</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
       <c r="D7" s="1">
         <v>0.126</v>
       </c>
       <c r="F7">
-        <f>D7*B7</f>
+        <f t="shared" si="0"/>
         <v>8.6054220000000001E-2</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.6054220000000008</v>
       </c>
       <c r="I7">
@@ -542,15 +577,19 @@
       <c r="B8">
         <v>0.41</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
       <c r="D8" s="1">
         <v>0.126</v>
       </c>
       <c r="F8">
-        <f>D8*B8</f>
+        <f t="shared" si="0"/>
         <v>5.1659999999999998E-2</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1659999999999995</v>
       </c>
       <c r="I8">
@@ -564,15 +603,19 @@
       <c r="B9">
         <v>0.38790999999999998</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
       <c r="D9" s="1">
         <v>0.126</v>
       </c>
       <c r="F9">
-        <f>D9*B9</f>
+        <f t="shared" si="0"/>
         <v>4.8876659999999995E-2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.8876659999999994</v>
       </c>
       <c r="I9">
@@ -586,15 +629,19 @@
       <c r="B10">
         <v>1.1662300000000001</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.17</v>
+      </c>
       <c r="D10" s="1">
         <v>0.126</v>
       </c>
       <c r="F10">
-        <f>D10*B10</f>
+        <f t="shared" si="0"/>
         <v>0.14694498</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.694497999999999</v>
       </c>
       <c r="I10">
@@ -603,5 +650,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>